--- a/trip_data.xlsx
+++ b/trip_data.xlsx
@@ -1,123 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Trip_Auditor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39933D7-91BC-48A0-9D2E-05D9AE25081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
-  <si>
-    <t>Trip ID</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>Start Location</t>
-  </si>
-  <si>
-    <t>End Location</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Fuel Usage (litres)</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>In transit</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Flagged</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>Delayed</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>Indore</t>
-  </si>
-  <si>
-    <t>Kolkatta</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,183 +424,1064 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="7" width="24.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trip ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle Number</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Location</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>End Location</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Distance (km)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Fuel Usage (litres)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>KA 01 BB 1234</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="H2" t="n">
+        <v>500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>In transit</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>KA 05 FG 1235</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="H3" t="n">
+        <v>700</v>
+      </c>
+      <c r="I3" t="n">
+        <v>150</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>KA 03 ED 1236</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>200</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>KA 02 YH 1237</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Indore</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="H5" t="n">
+        <v>900</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>KA 5 SH 1239</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Belgaum</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="H6" t="n">
+        <v>600</v>
+      </c>
+      <c r="I6" t="n">
+        <v>90</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>KA 06 AK 7799</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hubli</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>500</v>
+      </c>
+      <c r="I7" t="n">
+        <v>80</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>in transit</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>KA 06 AK 7799</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hubli</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>500</v>
+      </c>
+      <c r="I8" t="n">
+        <v>80</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>in transit</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>KA 05 FG 1235</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>700</v>
+      </c>
+      <c r="I9" t="n">
+        <v>150</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>KA 03 ED 1236</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>200</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KA 02 YH 1237</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Indore</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>900</v>
+      </c>
+      <c r="I11" t="n">
+        <v>75</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KA 5 SH 1239</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Belgaum</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>600</v>
+      </c>
+      <c r="I12" t="n">
+        <v>90</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>KA 06 AK 7799</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hubli</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>500</v>
+      </c>
+      <c r="I13" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>in transit</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KA 05 FG 1235</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>700</v>
+      </c>
+      <c r="I14" t="n">
+        <v>150</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KA 03 ED 1236</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I15" t="n">
+        <v>200</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KA 02 YH 1237</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Indore</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>900</v>
+      </c>
+      <c r="I16" t="n">
+        <v>75</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>KA 5 SH 1239</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Belgaum</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>600</v>
+      </c>
+      <c r="I17" t="n">
+        <v>90</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KA 06 AK 7799</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hubli</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>500</v>
+      </c>
+      <c r="I18" t="n">
+        <v>80</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>in transit</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>KA 05 FG 1235</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>700</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>KA 03 ED 1236</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>200</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>KA 02 YH 1237</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Indore</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>900</v>
+      </c>
+      <c r="I21" t="n">
+        <v>75</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>KA 5 SH 1239</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Belgaum</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>600</v>
+      </c>
+      <c r="I22" t="n">
+        <v>90</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45769</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45772</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>KA 49 kk 8024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mysore</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>150</v>
+      </c>
+      <c r="I23" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45770</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45773</v>
-      </c>
-      <c r="G3">
-        <v>150</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45771</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45774</v>
-      </c>
-      <c r="G4">
-        <v>200</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45658</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45679</v>
-      </c>
-      <c r="G5">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45698</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45710</v>
-      </c>
-      <c r="G6">
-        <v>500</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>in transit</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>